--- a/biology/Botanique/Alternaria_alternata/Alternaria_alternata.xlsx
+++ b/biology/Botanique/Alternaria_alternata/Alternaria_alternata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alternaria alternata est une espèce de champignons phytopathogènes de la famille des Pleosporaceae.
 C'est l'agent de la maladie des taches foliaires et d'autres maladies (souvent appelées « alternariose ») affectant de très nombreuses espèces végétales. C'est un phytopathogène opportuniste provoquant divers symptômes, taches noires, pourriture, rouille, etc. sur les différents organes de la plante.
-Chez l'homme, ce champignon peut causer des infections de l'appareil respiratoire supérieur[2] et provoquer de l'asthme chez les personnes sensibles.
+Chez l'homme, ce champignon peut causer des infections de l'appareil respiratoire supérieur et provoquer de l'asthme chez les personnes sensibles.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (10 septembre 2014)[3] : 	
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (10 septembre 2014) : 	
 Alternaria alternata var. alternata (Fr.) Keissl. 1912,
 Alternaria alternata var. rosicola V.G. Rao 1965,
 Alternaria fasciculata (Cooke &amp; Ellis) L.R. Jones &amp; Grout 1897,
